--- a/Datasets/Province_Data/Prov Dataset.xlsx
+++ b/Datasets/Province_Data/Prov Dataset.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad14993647faa9dd/Documents/Desktop/test/Datasets/Province_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Data Sci\Projects\DATA101\DATA101_Main_02\Datasets\Province_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{ED52E10A-BC43-4D55-A2EC-A0D0A094E184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C12997C-41F3-4677-8F9F-C69C3E4CCE7D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AEBDC5-22B2-4223-9BF8-4C83BB1C18D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E9ECEFEE-FD62-4679-9356-4559C49DDF70}"/>
+    <workbookView xWindow="3970" yWindow="2560" windowWidth="14130" windowHeight="9970" firstSheet="3" activeTab="5" xr2:uid="{E9ECEFEE-FD62-4679-9356-4559C49DDF70}"/>
   </bookViews>
   <sheets>
-    <sheet name="overall score" sheetId="1" r:id="rId1"/>
-    <sheet name="government efficiency" sheetId="2" r:id="rId2"/>
-    <sheet name="innovation" sheetId="3" r:id="rId3"/>
-    <sheet name="infrastructure" sheetId="4" r:id="rId4"/>
-    <sheet name="resiliency" sheetId="5" r:id="rId5"/>
-    <sheet name="economic dynamism" sheetId="7" r:id="rId6"/>
+    <sheet name="Overall Score" sheetId="1" r:id="rId1"/>
+    <sheet name="Government Efficiency" sheetId="2" r:id="rId2"/>
+    <sheet name="Innovation" sheetId="3" r:id="rId3"/>
+    <sheet name="Infrastructure" sheetId="4" r:id="rId4"/>
+    <sheet name="Resiliency" sheetId="5" r:id="rId5"/>
+    <sheet name="Economic Dynamism" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -359,10 +359,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -682,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DFA4F8-F221-4256-A50E-B0C608C91D57}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -18182,7 +18178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A674B0A6-A9CC-4EB8-BD36-1A5DD43BE2A1}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
